--- a/data/premissas_pnl/base_calculos.xlsx
+++ b/data/premissas_pnl/base_calculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DANIL\Desktop\Projeto_leao\V4\simulador_dre_streamlit\data\premissas_pnl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51471F4-52F2-4901-9669-5320DBCAACDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1FEF1E-8B12-4670-B925-DB2C963B2CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BA7D5224-BAA2-49F1-8E15-D8CB26C0EC9E}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$973</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$1237</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2848" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3712" uniqueCount="46">
   <si>
     <t>ERVAS 30X25</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>toll_packer</t>
+  </si>
+  <si>
+    <t>estrutura_industrial</t>
   </si>
 </sst>
 </file>
@@ -544,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D778FA-C86C-46A5-B91F-5529DDB0F5E7}">
-  <dimension ref="A1:H949"/>
+  <dimension ref="A1:H1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19532,8 +19535,4040 @@
       </c>
       <c r="H949" s="1"/>
     </row>
+    <row r="950" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A950" t="s">
+        <v>45</v>
+      </c>
+      <c r="B950" t="s">
+        <v>0</v>
+      </c>
+      <c r="C950" t="s">
+        <v>28</v>
+      </c>
+      <c r="D950">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="951" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A951" t="s">
+        <v>45</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1</v>
+      </c>
+      <c r="C951" t="s">
+        <v>28</v>
+      </c>
+      <c r="D951">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="952" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A952" t="s">
+        <v>45</v>
+      </c>
+      <c r="B952" t="s">
+        <v>2</v>
+      </c>
+      <c r="C952" t="s">
+        <v>28</v>
+      </c>
+      <c r="D952">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="953" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A953" t="s">
+        <v>45</v>
+      </c>
+      <c r="B953" t="s">
+        <v>3</v>
+      </c>
+      <c r="C953" t="s">
+        <v>28</v>
+      </c>
+      <c r="D953">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="954" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A954" t="s">
+        <v>45</v>
+      </c>
+      <c r="B954" t="s">
+        <v>4</v>
+      </c>
+      <c r="C954" t="s">
+        <v>28</v>
+      </c>
+      <c r="D954">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="955" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A955" t="s">
+        <v>45</v>
+      </c>
+      <c r="B955" t="s">
+        <v>5</v>
+      </c>
+      <c r="C955" t="s">
+        <v>28</v>
+      </c>
+      <c r="D955">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="956" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A956" t="s">
+        <v>45</v>
+      </c>
+      <c r="B956" t="s">
+        <v>6</v>
+      </c>
+      <c r="C956" t="s">
+        <v>28</v>
+      </c>
+      <c r="D956">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="957" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A957" t="s">
+        <v>45</v>
+      </c>
+      <c r="B957" t="s">
+        <v>7</v>
+      </c>
+      <c r="C957" t="s">
+        <v>28</v>
+      </c>
+      <c r="D957">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="958" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A958" t="s">
+        <v>45</v>
+      </c>
+      <c r="B958" t="s">
+        <v>8</v>
+      </c>
+      <c r="C958" t="s">
+        <v>28</v>
+      </c>
+      <c r="D958">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="959" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A959" t="s">
+        <v>45</v>
+      </c>
+      <c r="B959" t="s">
+        <v>9</v>
+      </c>
+      <c r="C959" t="s">
+        <v>28</v>
+      </c>
+      <c r="D959">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="960" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A960" t="s">
+        <v>45</v>
+      </c>
+      <c r="B960" t="s">
+        <v>10</v>
+      </c>
+      <c r="C960" t="s">
+        <v>28</v>
+      </c>
+      <c r="D960">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="961" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A961" t="s">
+        <v>45</v>
+      </c>
+      <c r="B961" t="s">
+        <v>12</v>
+      </c>
+      <c r="C961" t="s">
+        <v>28</v>
+      </c>
+      <c r="D961">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="962" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A962" t="s">
+        <v>45</v>
+      </c>
+      <c r="B962" t="s">
+        <v>13</v>
+      </c>
+      <c r="C962" t="s">
+        <v>28</v>
+      </c>
+      <c r="D962">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="963" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A963" t="s">
+        <v>45</v>
+      </c>
+      <c r="B963" t="s">
+        <v>14</v>
+      </c>
+      <c r="C963" t="s">
+        <v>28</v>
+      </c>
+      <c r="D963">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="964" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A964" t="s">
+        <v>45</v>
+      </c>
+      <c r="B964" t="s">
+        <v>10</v>
+      </c>
+      <c r="C964" t="s">
+        <v>28</v>
+      </c>
+      <c r="D964">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="965" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A965" t="s">
+        <v>45</v>
+      </c>
+      <c r="B965" t="s">
+        <v>15</v>
+      </c>
+      <c r="C965" t="s">
+        <v>28</v>
+      </c>
+      <c r="D965">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="966" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A966" t="s">
+        <v>45</v>
+      </c>
+      <c r="B966" t="s">
+        <v>16</v>
+      </c>
+      <c r="C966" t="s">
+        <v>28</v>
+      </c>
+      <c r="D966">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="967" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A967" t="s">
+        <v>45</v>
+      </c>
+      <c r="B967" t="s">
+        <v>17</v>
+      </c>
+      <c r="C967" t="s">
+        <v>28</v>
+      </c>
+      <c r="D967">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="968" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A968" t="s">
+        <v>45</v>
+      </c>
+      <c r="B968" t="s">
+        <v>18</v>
+      </c>
+      <c r="C968" t="s">
+        <v>28</v>
+      </c>
+      <c r="D968">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="969" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A969" t="s">
+        <v>45</v>
+      </c>
+      <c r="B969" t="s">
+        <v>19</v>
+      </c>
+      <c r="C969" t="s">
+        <v>28</v>
+      </c>
+      <c r="D969">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="970" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A970" t="s">
+        <v>45</v>
+      </c>
+      <c r="B970" t="s">
+        <v>20</v>
+      </c>
+      <c r="C970" t="s">
+        <v>28</v>
+      </c>
+      <c r="D970">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="971" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A971" t="s">
+        <v>45</v>
+      </c>
+      <c r="B971" t="s">
+        <v>21</v>
+      </c>
+      <c r="C971" t="s">
+        <v>28</v>
+      </c>
+      <c r="D971">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="972" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A972" t="s">
+        <v>45</v>
+      </c>
+      <c r="B972" t="s">
+        <v>10</v>
+      </c>
+      <c r="C972" t="s">
+        <v>28</v>
+      </c>
+      <c r="D972">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="973" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A973" t="s">
+        <v>45</v>
+      </c>
+      <c r="B973" t="s">
+        <v>24</v>
+      </c>
+      <c r="C973" t="s">
+        <v>28</v>
+      </c>
+      <c r="D973">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="974" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A974" t="s">
+        <v>45</v>
+      </c>
+      <c r="B974" t="s">
+        <v>0</v>
+      </c>
+      <c r="C974" t="s">
+        <v>30</v>
+      </c>
+      <c r="D974">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="975" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A975" t="s">
+        <v>45</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1</v>
+      </c>
+      <c r="C975" t="s">
+        <v>30</v>
+      </c>
+      <c r="D975">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="976" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A976" t="s">
+        <v>45</v>
+      </c>
+      <c r="B976" t="s">
+        <v>2</v>
+      </c>
+      <c r="C976" t="s">
+        <v>30</v>
+      </c>
+      <c r="D976">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="977" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A977" t="s">
+        <v>45</v>
+      </c>
+      <c r="B977" t="s">
+        <v>3</v>
+      </c>
+      <c r="C977" t="s">
+        <v>30</v>
+      </c>
+      <c r="D977">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="978" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A978" t="s">
+        <v>45</v>
+      </c>
+      <c r="B978" t="s">
+        <v>4</v>
+      </c>
+      <c r="C978" t="s">
+        <v>30</v>
+      </c>
+      <c r="D978">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="979" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A979" t="s">
+        <v>45</v>
+      </c>
+      <c r="B979" t="s">
+        <v>5</v>
+      </c>
+      <c r="C979" t="s">
+        <v>30</v>
+      </c>
+      <c r="D979">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="980" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A980" t="s">
+        <v>45</v>
+      </c>
+      <c r="B980" t="s">
+        <v>6</v>
+      </c>
+      <c r="C980" t="s">
+        <v>30</v>
+      </c>
+      <c r="D980">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="981" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A981" t="s">
+        <v>45</v>
+      </c>
+      <c r="B981" t="s">
+        <v>7</v>
+      </c>
+      <c r="C981" t="s">
+        <v>30</v>
+      </c>
+      <c r="D981">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="982" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A982" t="s">
+        <v>45</v>
+      </c>
+      <c r="B982" t="s">
+        <v>8</v>
+      </c>
+      <c r="C982" t="s">
+        <v>30</v>
+      </c>
+      <c r="D982">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="983" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A983" t="s">
+        <v>45</v>
+      </c>
+      <c r="B983" t="s">
+        <v>9</v>
+      </c>
+      <c r="C983" t="s">
+        <v>30</v>
+      </c>
+      <c r="D983">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="984" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A984" t="s">
+        <v>45</v>
+      </c>
+      <c r="B984" t="s">
+        <v>10</v>
+      </c>
+      <c r="C984" t="s">
+        <v>30</v>
+      </c>
+      <c r="D984">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="985" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A985" t="s">
+        <v>45</v>
+      </c>
+      <c r="B985" t="s">
+        <v>12</v>
+      </c>
+      <c r="C985" t="s">
+        <v>30</v>
+      </c>
+      <c r="D985">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="986" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A986" t="s">
+        <v>45</v>
+      </c>
+      <c r="B986" t="s">
+        <v>13</v>
+      </c>
+      <c r="C986" t="s">
+        <v>30</v>
+      </c>
+      <c r="D986">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="987" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A987" t="s">
+        <v>45</v>
+      </c>
+      <c r="B987" t="s">
+        <v>14</v>
+      </c>
+      <c r="C987" t="s">
+        <v>30</v>
+      </c>
+      <c r="D987">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="988" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A988" t="s">
+        <v>45</v>
+      </c>
+      <c r="B988" t="s">
+        <v>10</v>
+      </c>
+      <c r="C988" t="s">
+        <v>30</v>
+      </c>
+      <c r="D988">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="989" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A989" t="s">
+        <v>45</v>
+      </c>
+      <c r="B989" t="s">
+        <v>15</v>
+      </c>
+      <c r="C989" t="s">
+        <v>30</v>
+      </c>
+      <c r="D989">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="990" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A990" t="s">
+        <v>45</v>
+      </c>
+      <c r="B990" t="s">
+        <v>16</v>
+      </c>
+      <c r="C990" t="s">
+        <v>30</v>
+      </c>
+      <c r="D990">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="991" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A991" t="s">
+        <v>45</v>
+      </c>
+      <c r="B991" t="s">
+        <v>17</v>
+      </c>
+      <c r="C991" t="s">
+        <v>30</v>
+      </c>
+      <c r="D991">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="992" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A992" t="s">
+        <v>45</v>
+      </c>
+      <c r="B992" t="s">
+        <v>18</v>
+      </c>
+      <c r="C992" t="s">
+        <v>30</v>
+      </c>
+      <c r="D992">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="993" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A993" t="s">
+        <v>45</v>
+      </c>
+      <c r="B993" t="s">
+        <v>19</v>
+      </c>
+      <c r="C993" t="s">
+        <v>30</v>
+      </c>
+      <c r="D993">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="994" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A994" t="s">
+        <v>45</v>
+      </c>
+      <c r="B994" t="s">
+        <v>20</v>
+      </c>
+      <c r="C994" t="s">
+        <v>30</v>
+      </c>
+      <c r="D994">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="995" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A995" t="s">
+        <v>45</v>
+      </c>
+      <c r="B995" t="s">
+        <v>21</v>
+      </c>
+      <c r="C995" t="s">
+        <v>30</v>
+      </c>
+      <c r="D995">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="996" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A996" t="s">
+        <v>45</v>
+      </c>
+      <c r="B996" t="s">
+        <v>10</v>
+      </c>
+      <c r="C996" t="s">
+        <v>30</v>
+      </c>
+      <c r="D996">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="997" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A997" t="s">
+        <v>45</v>
+      </c>
+      <c r="B997" t="s">
+        <v>24</v>
+      </c>
+      <c r="C997" t="s">
+        <v>30</v>
+      </c>
+      <c r="D997">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="998" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A998" t="s">
+        <v>45</v>
+      </c>
+      <c r="B998" t="s">
+        <v>0</v>
+      </c>
+      <c r="C998" t="s">
+        <v>31</v>
+      </c>
+      <c r="D998">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="999" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A999" t="s">
+        <v>45</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1</v>
+      </c>
+      <c r="C999" t="s">
+        <v>31</v>
+      </c>
+      <c r="D999">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1000" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1000">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1001" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1001">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1002" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1002">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1003" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1003">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1004" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1004">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1005" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1005">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1006" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1006">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1007" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1007">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1008" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1008">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1009" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1009">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1010" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1010">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1011" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1011">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1012" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1012">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1013" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1013">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1014" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1014">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1015" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1015">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1016" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1016">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1017" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1017">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1018" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1018">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1019" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1019">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1020" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1020">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1021" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1021">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1022" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1022">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1023" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1023">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1024" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1024">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1025" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1025">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1026" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1026">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1027" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1027">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1028" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1028">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1029" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1029">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1030" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1030">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1031" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1031">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1032" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1032">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1033" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1033">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1034" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1034">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1035" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1035">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1036" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1036">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1037" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1037">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1038" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1038">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1039" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1039">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1040">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1041">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1042">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1043">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1044">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1045">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1046">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1047">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1048">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1049">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1050">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1051">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1052">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1053">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1054">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1055">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1056">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1057">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1058">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1059">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1060">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1061">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1062">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1063">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1064">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1065">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1066">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1067">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1068">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1069">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1070">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1071">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1072">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1073">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1074">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1075">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1076">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1077">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1078">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1079">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1080">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1081">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1082">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1083">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1084">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1085">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1086">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1087">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1088">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1089">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1090" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1090">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1091" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1091">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1092" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1092">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1093" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1093">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1094" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1094">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1095" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1095">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1096" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1096">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1097" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1097">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1098" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1098">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1099" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1099">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1100" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1100">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1101" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1101">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1102" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1102">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1103">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1104">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1105">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1106">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1107" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1107">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1108">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1109" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1109">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1110" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1110">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1111" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1111">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1112" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1112">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1113" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1113">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1114" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1114">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1115">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1116">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1117">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1118" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1118">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1119">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1120">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1121" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1121">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1122" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1122">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1123">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1124">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1125" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1125">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1126" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1126">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1127" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1127">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1128" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1128">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1129" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1129">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1130" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1130">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1131">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1132" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1132">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1133" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1133">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1134" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1134">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1135" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1135">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1136" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1136">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1137" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1137">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1138" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1138">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1139">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1140" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1140">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1141" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1141">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1142">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1143" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1143">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1144" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1144">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1145" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1145">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1146" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1146">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1147" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1147">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1148" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1148">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1149" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1149">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1150" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1150">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1151" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1151">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1152" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1152">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1153" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1153">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1154" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1154">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1155" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1155">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1156">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1157">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1158" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1158">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1159" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1159">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1160" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1160">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1161" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1161">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1162" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1162">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1163" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1163">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1164" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1164">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1165" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1165">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1166" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1166">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1167" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1167">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1168" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1168">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1169">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1170" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1170">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1171" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1171">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1172" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1172">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1173" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1173">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1174" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1174">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1175" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1175">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1176" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1176">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1177" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1177">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1178">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1179" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1179">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1180" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1180">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1181" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1181">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1182" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1182">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1183" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1183">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1184" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1184">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1185" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1185">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1186" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1186">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1187" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1187">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1188" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1188">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1189" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1189">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1190" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1190">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1191" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1191">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1192" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1192">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1193" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1193">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1194" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1194">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1195" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1195">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1196" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1196">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1197" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1197">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1198" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1198">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1199" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1199">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1200">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1201">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1202">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1203">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1204">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1205">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1206">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1207">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1208">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1209">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1210">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1211">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1212">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1213">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1214">
+        <v>-0.4903946373127176</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1215">
+        <v>-0.70628960324774626</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1216">
+        <v>-0.81425515831331874</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1217">
+        <v>-0.51686279912561506</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1218">
+        <v>-0.47311766195611227</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1219">
+        <v>-0.46548732930885928</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1220">
+        <v>-0.482886594316352</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1221">
+        <v>-0.54900557440298159</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1222">
+        <v>-0.40269969228667984</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1223">
+        <v>-0.74616268167798649</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1224">
+        <v>-0.6921984435823163</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1225">
+        <v>-0.74339116019453289</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1226">
+        <v>-0.68267935782552547</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1227">
+        <v>-0.84280556429961884</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1228">
+        <v>-0.72971675569130656</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1229">
+        <v>-0.5592313114864228</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1230">
+        <v>-0.45280622138198251</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1231">
+        <v>-0.73787391460965446</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1232">
+        <v>-0.84247228423725207</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1233">
+        <v>-0.41829361750460442</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1234">
+        <v>-0.59379600231679153</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1235">
+        <v>-2.1665754937177244</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1236">
+        <v>-0.64730938294444051</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1237">
+        <v>-0.78323087617430243</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D973" xr:uid="{96D778FA-C86C-46A5-B91F-5529DDB0F5E7}"/>
+  <autoFilter ref="A1:D1237" xr:uid="{96D778FA-C86C-46A5-B91F-5529DDB0F5E7}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
